--- a/태양광/[totalDesign] 태양광.xlsx
+++ b/태양광/[totalDesign] 태양광.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\태양광\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C846ECFC-EC62-44C7-B503-E0BB25CDF203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D6293C-3595-4837-B7DC-DFFCED923A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{B25731AF-BFCF-4C4F-9EF9-EFA70691F623}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="7" xr2:uid="{B25731AF-BFCF-4C4F-9EF9-EFA70691F623}"/>
   </bookViews>
   <sheets>
     <sheet name="전체 디자인" sheetId="11" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="231">
   <si>
     <t>CTP_KOR_NM</t>
   </si>
@@ -375,10 +375,6 @@
   </si>
   <si>
     <t>통합</t>
-  </si>
-  <si>
-    <t>지난 5년 평균 (2020~2024):</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2023</t>
@@ -908,6 +904,18 @@
   </si>
   <si>
     <t>2024-22 에경연 LCOE 이슈페이퍼 참고할 것.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>육지 지난 5년 평균 (2020~2024):</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 지난 5년 평균 (2020~2024):</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>육지 지난 5년 평균 (2019~2023):</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1619,7 +1627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,13 +1709,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2992,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3015,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -3023,15 +3034,15 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
         <v>221</v>
-      </c>
-      <c r="D11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="26">
         <v>0.33</v>
@@ -3039,10 +3050,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
         <v>219</v>
-      </c>
-      <c r="C13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -3068,7 +3079,7 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3109,20 +3120,20 @@
   <sheetData>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="27">
+        <v>211</v>
+      </c>
+      <c r="C6" s="28">
         <v>10</v>
       </c>
       <c r="D6">
@@ -3131,16 +3142,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="C7" s="28"/>
       <c r="D7">
         <v>19.8</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3313,22 +3324,22 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3353,10 +3364,10 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3366,8 +3377,8 @@
       <c r="B4">
         <v>3.3759079441190964</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>226</v>
+      <c r="D4" s="27" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -3436,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26B93F1-4ED4-4F47-B31E-E2528D2687A5}">
   <dimension ref="A2:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3474,7 +3485,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -3500,22 +3511,22 @@
         <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>28</v>
@@ -3546,7 +3557,7 @@
         <v>8247.5399999999991</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5">
         <f>J5*B24*B17</f>
@@ -3564,7 +3575,7 @@
         <v>186.46486004648341</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <f>L5</f>
@@ -3585,7 +3596,7 @@
         <v>8247.5399999999991</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L6">
         <f>J5*C24*B17</f>
@@ -3603,7 +3614,7 @@
         <v>186.46486004648341</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <f>0</f>
@@ -3719,7 +3730,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="14">
         <v>14.9</v>
@@ -3728,10 +3739,10 @@
         <v>19.8</v>
       </c>
       <c r="D25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" t="s">
         <v>126</v>
-      </c>
-      <c r="E25" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -3748,7 +3759,7 @@
         <v>65</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -3762,12 +3773,12 @@
         <v>25798</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="15">
         <f>SMP!J5</f>
@@ -3778,15 +3789,15 @@
         <v>131.072</v>
       </c>
       <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
         <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3797,7 +3808,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="15">
         <f>B29*REC!P3/1000</f>
@@ -3808,15 +3819,15 @@
         <v>55.392860046483399</v>
       </c>
       <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
         <v>112</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31">
         <v>4.4999999999999998E-2</v>
@@ -3830,7 +3841,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="15">
         <v>20</v>
@@ -3839,12 +3850,12 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33">
         <v>0.05</v>
@@ -3856,12 +3867,12 @@
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="13">
         <v>8.0000000000000002E-3</v>
@@ -3873,7 +3884,7 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -3925,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="20">
         <f>1/(1+$B$31)^(A44)</f>
@@ -3935,14 +3946,14 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" ref="G44:G63" si="0">(1-$B$34)^(E44)</f>
         <v>0.99199999999999999</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J44" s="21">
         <f t="shared" ref="J44:J63" si="1">C44*G44</f>
@@ -3954,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45" s="20">
         <f>1/(1+$B$31)^(A45)</f>
@@ -3964,14 +3975,14 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
         <v>0.98406399999999994</v>
       </c>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" s="21">
         <f t="shared" si="1"/>
@@ -3983,7 +3994,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" s="20">
         <f>1/(1+$B$31)^(A46)</f>
@@ -3993,14 +4004,14 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
         <v>0.97619148799999989</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J46" s="21">
         <f t="shared" si="1"/>
@@ -4012,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C47" s="20">
         <f t="shared" ref="C47:C63" si="2">1/(1+$B$31)^(A47)</f>
@@ -4022,14 +4033,14 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
         <v>0.96838195609599986</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J47" s="21">
         <f t="shared" si="1"/>
@@ -4041,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="20">
         <f t="shared" si="2"/>
@@ -4051,14 +4062,14 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
         <v>0.96063490044723188</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="21">
         <f t="shared" si="1"/>
@@ -4070,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="20">
         <f t="shared" si="2"/>
@@ -4080,14 +4091,14 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="21">
         <f t="shared" si="0"/>
         <v>0.95294982124365391</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J49" s="21">
         <f t="shared" si="1"/>
@@ -4099,7 +4110,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="20">
         <f t="shared" si="2"/>
@@ -4109,14 +4120,14 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="21">
         <f t="shared" si="0"/>
         <v>0.9453262226737047</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J50" s="21">
         <f t="shared" si="1"/>
@@ -4128,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51" s="20">
         <f t="shared" si="2"/>
@@ -4138,14 +4149,14 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="21">
         <f t="shared" si="0"/>
         <v>0.93776361289231502</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J51" s="21">
         <f t="shared" si="1"/>
@@ -4157,7 +4168,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C52" s="20">
         <f t="shared" si="2"/>
@@ -4167,14 +4178,14 @@
         <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G52" s="21">
         <f t="shared" si="0"/>
         <v>0.93026150398917651</v>
       </c>
       <c r="I52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J52" s="21">
         <f t="shared" si="1"/>
@@ -4186,7 +4197,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="20">
         <f t="shared" si="2"/>
@@ -4196,14 +4207,14 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" s="21">
         <f t="shared" si="0"/>
         <v>0.92281941195726302</v>
       </c>
       <c r="I53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J53" s="21">
         <f t="shared" si="1"/>
@@ -4215,7 +4226,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" s="20">
         <f t="shared" si="2"/>
@@ -4225,14 +4236,14 @@
         <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G54" s="21">
         <f t="shared" si="0"/>
         <v>0.9154368566616049</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J54" s="21">
         <f t="shared" si="1"/>
@@ -4244,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="20">
         <f t="shared" si="2"/>
@@ -4254,14 +4265,14 @@
         <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G55" s="21">
         <f t="shared" si="0"/>
         <v>0.90811336180831204</v>
       </c>
       <c r="I55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J55" s="21">
         <f t="shared" si="1"/>
@@ -4273,7 +4284,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C56" s="20">
         <f t="shared" si="2"/>
@@ -4283,14 +4294,14 @@
         <v>13</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" s="21">
         <f t="shared" si="0"/>
         <v>0.90084845491384558</v>
       </c>
       <c r="I56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J56" s="21">
         <f t="shared" si="1"/>
@@ -4302,7 +4313,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="20">
         <f t="shared" si="2"/>
@@ -4312,14 +4323,14 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="21">
         <f t="shared" si="0"/>
         <v>0.89364166727453465</v>
       </c>
       <c r="I57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" si="1"/>
@@ -4331,7 +4342,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="20">
         <f t="shared" si="2"/>
@@ -4341,14 +4352,14 @@
         <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G58" s="21">
         <f t="shared" si="0"/>
         <v>0.88649253393633842</v>
       </c>
       <c r="I58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J58" s="21">
         <f t="shared" si="1"/>
@@ -4360,7 +4371,7 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="20">
         <f t="shared" si="2"/>
@@ -4370,14 +4381,14 @@
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G59" s="21">
         <f t="shared" si="0"/>
         <v>0.87940059366484769</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J59" s="21">
         <f t="shared" si="1"/>
@@ -4389,7 +4400,7 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C60" s="20">
         <f t="shared" si="2"/>
@@ -4399,14 +4410,14 @@
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G60" s="21">
         <f t="shared" si="0"/>
         <v>0.87236538891552895</v>
       </c>
       <c r="I60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J60" s="21">
         <f t="shared" si="1"/>
@@ -4418,7 +4429,7 @@
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C61" s="20">
         <f t="shared" si="2"/>
@@ -4428,14 +4439,14 @@
         <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" s="21">
         <f t="shared" si="0"/>
         <v>0.86538646580420464</v>
       </c>
       <c r="I61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J61" s="21">
         <f t="shared" si="1"/>
@@ -4447,7 +4458,7 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="2"/>
@@ -4457,14 +4468,14 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G62" s="21">
         <f t="shared" si="0"/>
         <v>0.85846337407777096</v>
       </c>
       <c r="I62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J62" s="21">
         <f t="shared" si="1"/>
@@ -4476,7 +4487,7 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="20">
         <f t="shared" si="2"/>
@@ -4486,14 +4497,14 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G63" s="21">
         <f t="shared" si="0"/>
         <v>0.85159566708514878</v>
       </c>
       <c r="I63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J63" s="21">
         <f t="shared" si="1"/>
@@ -5353,36 +5364,36 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5401,7 +5412,7 @@
   <dimension ref="B1:AS112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5425,21 +5436,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:45" x14ac:dyDescent="0.45">
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="2:45" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
@@ -5510,6 +5521,9 @@
         <f>SUM(H3,E3)</f>
         <v>434626437149</v>
       </c>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
       <c r="N3" s="8">
         <f>SUM(I3:I7)</f>
         <v>54505047</v>
@@ -5562,6 +5576,21 @@
       <c r="K4" s="6">
         <f>SUM(H4,E4)</f>
         <v>381500886285</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="8">
+        <f>SUM(C3:C7)</f>
+        <v>53554339</v>
+      </c>
+      <c r="O4" s="8">
+        <f>SUM(E3:E7)</f>
+        <v>2985355475747</v>
+      </c>
+      <c r="P4" s="6">
+        <f>O4/N4</f>
+        <v>55744.418314023074</v>
       </c>
     </row>
     <row r="5" spans="2:45" x14ac:dyDescent="0.45">
@@ -19117,17 +19146,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -19144,13 +19173,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499955FE-4249-4527-BCFB-B5982939E3B6}">
   <dimension ref="D2:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -19159,17 +19188,17 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.45">
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="10" t="s">
         <v>83</v>
       </c>
@@ -19194,7 +19223,7 @@
         <v>128.38999999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="J5">
         <f>AVERAGE(G5:G9)</f>
@@ -19203,7 +19232,7 @@
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D6" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12">
         <v>167</v>
@@ -19214,10 +19243,17 @@
       <c r="G6" s="12">
         <v>167.11</v>
       </c>
+      <c r="I6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>130.774</v>
+      </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="12">
         <v>196.04</v>
@@ -19228,10 +19264,17 @@
       <c r="G7" s="12">
         <v>196.65</v>
       </c>
+      <c r="I7" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="30">
+        <f>AVERAGE(E6:E10)</f>
+        <v>123.126</v>
+      </c>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D8" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="12">
         <v>93.98</v>
@@ -19245,7 +19288,7 @@
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12">
         <v>68.52</v>
@@ -19259,7 +19302,7 @@
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D10" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="12">
         <v>90.09</v>
@@ -19273,7 +19316,7 @@
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D11" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="12">
         <v>94.64</v>
@@ -19287,7 +19330,7 @@
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="12">
         <v>81.39</v>
@@ -19301,7 +19344,7 @@
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D13" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="12">
         <v>76.91</v>
@@ -19315,7 +19358,7 @@
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D14" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="12">
         <v>101.54</v>
@@ -19329,7 +19372,7 @@
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D15" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="12">
         <v>141.78</v>
@@ -19343,7 +19386,7 @@
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.45">
       <c r="D16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="12">
         <v>151.56</v>
@@ -19357,7 +19400,7 @@
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="12">
         <v>160.12</v>
@@ -19371,7 +19414,7 @@
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D18" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="12">
         <v>125.9281</v>
@@ -19385,7 +19428,7 @@
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D19" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="12">
         <v>117.42400000000001</v>
@@ -19399,7 +19442,7 @@
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D20" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="12">
         <v>105.084</v>
@@ -19413,7 +19456,7 @@
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D21" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="12">
         <v>122.65</v>
@@ -19427,7 +19470,7 @@
     </row>
     <row r="22" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D22" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="12">
         <v>83.835999999999999</v>
@@ -19441,7 +19484,7 @@
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D23" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="12">
         <v>79.275000000000006</v>
@@ -19455,7 +19498,7 @@
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="12">
         <v>62.122999999999998</v>
@@ -19469,7 +19512,7 @@
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D25" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="12">
         <v>55.968000000000004</v>
@@ -19483,7 +19526,7 @@
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D26" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="12">
         <v>50.728999999999999</v>
@@ -19497,7 +19540,7 @@
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D27" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="12">
         <v>47.543999999999997</v>
@@ -19511,7 +19554,7 @@
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D28" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="12">
         <v>49.11</v>
@@ -19525,7 +19568,7 @@
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -19550,17 +19593,17 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
